--- a/Code/Results/Cases/Case_4_77/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_77/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011834732651759</v>
+        <v>1.036050048989564</v>
       </c>
       <c r="D2">
-        <v>1.031638850960784</v>
+        <v>1.045031388801901</v>
       </c>
       <c r="E2">
-        <v>1.019932530917339</v>
+        <v>1.039697817890114</v>
       </c>
       <c r="F2">
-        <v>1.032022312842125</v>
+        <v>1.051946139633491</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051500195747487</v>
+        <v>1.04126698348536</v>
       </c>
       <c r="J2">
-        <v>1.033667140309007</v>
+        <v>1.041160482676163</v>
       </c>
       <c r="K2">
-        <v>1.042674324629681</v>
+        <v>1.047800771080341</v>
       </c>
       <c r="L2">
-        <v>1.031120986321463</v>
+        <v>1.042482267786427</v>
       </c>
       <c r="M2">
-        <v>1.043052848740249</v>
+        <v>1.054696233967583</v>
       </c>
       <c r="N2">
-        <v>1.014985102958271</v>
+        <v>1.01765761782517</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.016005543785274</v>
+        <v>1.036928480810799</v>
       </c>
       <c r="D3">
-        <v>1.034954096526012</v>
+        <v>1.045751409860684</v>
       </c>
       <c r="E3">
-        <v>1.023613164786695</v>
+        <v>1.040524407164275</v>
       </c>
       <c r="F3">
-        <v>1.036004336134567</v>
+        <v>1.05284153239199</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052967520795924</v>
+        <v>1.041514128942042</v>
       </c>
       <c r="J3">
-        <v>1.036069191580127</v>
+        <v>1.041683075675493</v>
       </c>
       <c r="K3">
-        <v>1.045158445406372</v>
+        <v>1.048332388372463</v>
       </c>
       <c r="L3">
-        <v>1.033952569043438</v>
+        <v>1.043119085859744</v>
       </c>
       <c r="M3">
-        <v>1.046196363192152</v>
+        <v>1.055404161991951</v>
       </c>
       <c r="N3">
-        <v>1.015795217935486</v>
+        <v>1.017832621105605</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.018652067937583</v>
+        <v>1.037497364333266</v>
       </c>
       <c r="D4">
-        <v>1.03705995127784</v>
+        <v>1.046217683251864</v>
       </c>
       <c r="E4">
-        <v>1.025953784981901</v>
+        <v>1.041060079568865</v>
       </c>
       <c r="F4">
-        <v>1.038536066694386</v>
+        <v>1.053421754523846</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053888428753859</v>
+        <v>1.041672932125922</v>
       </c>
       <c r="J4">
-        <v>1.037590393637119</v>
+        <v>1.042021060430047</v>
       </c>
       <c r="K4">
-        <v>1.046730760225227</v>
+        <v>1.048676080161196</v>
       </c>
       <c r="L4">
-        <v>1.03574874545656</v>
+        <v>1.043531314836513</v>
       </c>
       <c r="M4">
-        <v>1.048190620373726</v>
+        <v>1.055862445333643</v>
       </c>
       <c r="N4">
-        <v>1.016308115228583</v>
+        <v>1.017945757324121</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019752563463236</v>
+        <v>1.037736636426826</v>
       </c>
       <c r="D5">
-        <v>1.037936113398957</v>
+        <v>1.04641379199718</v>
       </c>
       <c r="E5">
-        <v>1.026928277914889</v>
+        <v>1.041285469510949</v>
       </c>
       <c r="F5">
-        <v>1.039589998180479</v>
+        <v>1.053665880130409</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054268893330561</v>
+        <v>1.041739424995225</v>
       </c>
       <c r="J5">
-        <v>1.038222206208199</v>
+        <v>1.042163107948193</v>
       </c>
       <c r="K5">
-        <v>1.047383589122519</v>
+        <v>1.04882049515871</v>
       </c>
       <c r="L5">
-        <v>1.036495478960488</v>
+        <v>1.04370465414234</v>
       </c>
       <c r="M5">
-        <v>1.049019754025557</v>
+        <v>1.056055155708937</v>
       </c>
       <c r="N5">
-        <v>1.01652110341639</v>
+        <v>1.017993294810306</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.01993664334143</v>
+        <v>1.037776817879641</v>
       </c>
       <c r="D6">
-        <v>1.038082696762633</v>
+        <v>1.046446724599084</v>
       </c>
       <c r="E6">
-        <v>1.027091351039058</v>
+        <v>1.041323324761127</v>
       </c>
       <c r="F6">
-        <v>1.039766357252091</v>
+        <v>1.053706881587782</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054332387209058</v>
+        <v>1.041750573704994</v>
       </c>
       <c r="J6">
-        <v>1.038327844952444</v>
+        <v>1.042186955899711</v>
       </c>
       <c r="K6">
-        <v>1.047492729103921</v>
+        <v>1.048844738755573</v>
       </c>
       <c r="L6">
-        <v>1.036620374527482</v>
+        <v>1.043733760779925</v>
       </c>
       <c r="M6">
-        <v>1.049158434513461</v>
+        <v>1.05608751540654</v>
       </c>
       <c r="N6">
-        <v>1.016556712644657</v>
+        <v>1.018001275086473</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.018666819840018</v>
+        <v>1.037500561054496</v>
       </c>
       <c r="D7">
-        <v>1.037071694151626</v>
+        <v>1.046220303325</v>
       </c>
       <c r="E7">
-        <v>1.02596684314537</v>
+        <v>1.04106309048289</v>
       </c>
       <c r="F7">
-        <v>1.038550189832012</v>
+        <v>1.053425015757451</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053893538614413</v>
+        <v>1.041673821660792</v>
       </c>
       <c r="J7">
-        <v>1.037598865921726</v>
+        <v>1.04202295863947</v>
       </c>
       <c r="K7">
-        <v>1.046739515176608</v>
+        <v>1.048678010129892</v>
       </c>
       <c r="L7">
-        <v>1.035758755945796</v>
+        <v>1.043533630856133</v>
       </c>
       <c r="M7">
-        <v>1.048201735292952</v>
+        <v>1.05586502015202</v>
       </c>
       <c r="N7">
-        <v>1.016310971443544</v>
+        <v>1.017946392621014</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.013255353656698</v>
+        <v>1.036346819087422</v>
       </c>
       <c r="D8">
-        <v>1.032767567973686</v>
+        <v>1.045274645408968</v>
       </c>
       <c r="E8">
-        <v>1.021185098405404</v>
+        <v>1.039976998138279</v>
       </c>
       <c r="F8">
-        <v>1.033377565062144</v>
+        <v>1.052248566250863</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052002088864643</v>
+        <v>1.041350738192311</v>
       </c>
       <c r="J8">
-        <v>1.03448591112779</v>
+        <v>1.041337129530386</v>
       </c>
       <c r="K8">
-        <v>1.043521246897753</v>
+        <v>1.047980495074492</v>
       </c>
       <c r="L8">
-        <v>1.03208555129475</v>
+        <v>1.042697448480196</v>
       </c>
       <c r="M8">
-        <v>1.044123627727125</v>
+        <v>1.054935437946691</v>
       </c>
       <c r="N8">
-        <v>1.015261269358216</v>
+        <v>1.017716781998364</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.003299911543798</v>
+        <v>1.03431750773971</v>
       </c>
       <c r="D9">
-        <v>1.024868849485319</v>
+        <v>1.043611190165577</v>
       </c>
       <c r="E9">
-        <v>1.012430393600753</v>
+        <v>1.038069467729616</v>
       </c>
       <c r="F9">
-        <v>1.023902653349774</v>
+        <v>1.050182041332447</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048443363588752</v>
+        <v>1.040772904460526</v>
       </c>
       <c r="J9">
-        <v>1.028736677170995</v>
+        <v>1.04012737339788</v>
       </c>
       <c r="K9">
-        <v>1.037570932732</v>
+        <v>1.046749137541049</v>
       </c>
       <c r="L9">
-        <v>1.025324964974095</v>
+        <v>1.041225309383301</v>
       </c>
       <c r="M9">
-        <v>1.036619475049995</v>
+        <v>1.053299039081076</v>
       </c>
       <c r="N9">
-        <v>1.013321610177891</v>
+        <v>1.017311411273664</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9963519716620439</v>
+        <v>1.032967218146936</v>
       </c>
       <c r="D10">
-        <v>1.019372417818861</v>
+        <v>1.042504272008851</v>
       </c>
       <c r="E10">
-        <v>1.006351275877617</v>
+        <v>1.036802112319273</v>
       </c>
       <c r="F10">
-        <v>1.017320066279667</v>
+        <v>1.048808844599126</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045908587982564</v>
+        <v>1.040381995963745</v>
       </c>
       <c r="J10">
-        <v>1.024711078381103</v>
+        <v>1.039320101540812</v>
       </c>
       <c r="K10">
-        <v>1.033400490174504</v>
+        <v>1.04592679142092</v>
       </c>
       <c r="L10">
-        <v>1.02060679520639</v>
+        <v>1.040244847486702</v>
       </c>
       <c r="M10">
-        <v>1.031383488152479</v>
+        <v>1.052209294361135</v>
       </c>
       <c r="N10">
-        <v>1.011962999846793</v>
+        <v>1.017040672774942</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9932627594483138</v>
+        <v>1.032383156920079</v>
       </c>
       <c r="D11">
-        <v>1.016933078188949</v>
+        <v>1.042025470283662</v>
       </c>
       <c r="E11">
-        <v>1.003656205025887</v>
+        <v>1.036254380460052</v>
       </c>
       <c r="F11">
-        <v>1.014400925569138</v>
+        <v>1.048215319612596</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044769980907566</v>
+        <v>1.040211388362116</v>
       </c>
       <c r="J11">
-        <v>1.022918526465515</v>
+        <v>1.038970375251206</v>
       </c>
       <c r="K11">
-        <v>1.031542573793362</v>
+        <v>1.045570379211849</v>
       </c>
       <c r="L11">
-        <v>1.01850949849742</v>
+        <v>1.03982054124079</v>
       </c>
       <c r="M11">
-        <v>1.029056277326927</v>
+        <v>1.051737721909388</v>
       </c>
       <c r="N11">
-        <v>1.011357961914285</v>
+        <v>1.016923328637232</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.992102529873119</v>
+        <v>1.032166305445523</v>
       </c>
       <c r="D12">
-        <v>1.016017660555346</v>
+        <v>1.041847698843049</v>
       </c>
       <c r="E12">
-        <v>1.002645231046772</v>
+        <v>1.036051086491558</v>
       </c>
       <c r="F12">
-        <v>1.013305762748217</v>
+        <v>1.047995021617359</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044340655563206</v>
+        <v>1.040147816211972</v>
       </c>
       <c r="J12">
-        <v>1.022244926789807</v>
+        <v>1.0388404465202</v>
       </c>
       <c r="K12">
-        <v>1.030844289538432</v>
+        <v>1.045437943283174</v>
       </c>
       <c r="L12">
-        <v>1.017721927471975</v>
+        <v>1.039662972363856</v>
       </c>
       <c r="M12">
-        <v>1.028182409241478</v>
+        <v>1.051562604479924</v>
       </c>
       <c r="N12">
-        <v>1.01113059681686</v>
+        <v>1.016879725295351</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.992351991031506</v>
+        <v>1.032212816509577</v>
       </c>
       <c r="D13">
-        <v>1.016214450386163</v>
+        <v>1.041885827918559</v>
       </c>
       <c r="E13">
-        <v>1.002862544539008</v>
+        <v>1.036094686561359</v>
       </c>
       <c r="F13">
-        <v>1.013541179252199</v>
+        <v>1.048042268855455</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044433040616008</v>
+        <v>1.040161461733826</v>
       </c>
       <c r="J13">
-        <v>1.022389773305531</v>
+        <v>1.038868317779934</v>
       </c>
       <c r="K13">
-        <v>1.030994449449509</v>
+        <v>1.045466353418622</v>
       </c>
       <c r="L13">
-        <v>1.017891257091602</v>
+        <v>1.039696769712147</v>
       </c>
       <c r="M13">
-        <v>1.028370291137239</v>
+        <v>1.051600165678502</v>
       </c>
       <c r="N13">
-        <v>1.011179488134376</v>
+        <v>1.016889079100481</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9931671185883388</v>
+        <v>1.032365229966914</v>
       </c>
       <c r="D14">
-        <v>1.016857602511924</v>
+        <v>1.042010774064488</v>
       </c>
       <c r="E14">
-        <v>1.003572842497722</v>
+        <v>1.036237572884296</v>
       </c>
       <c r="F14">
-        <v>1.014310623824543</v>
+        <v>1.04819710636462</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044734624606431</v>
+        <v>1.040206137562543</v>
       </c>
       <c r="J14">
-        <v>1.022863006963076</v>
+        <v>1.038959635801847</v>
       </c>
       <c r="K14">
-        <v>1.031485022170067</v>
+        <v>1.045559433000723</v>
       </c>
       <c r="L14">
-        <v>1.018444574183747</v>
+        <v>1.039807515778925</v>
       </c>
       <c r="M14">
-        <v>1.02898423820985</v>
+        <v>1.05172324571035</v>
       </c>
       <c r="N14">
-        <v>1.011339222099554</v>
+        <v>1.016919724705706</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9936676353046333</v>
+        <v>1.032459149537274</v>
       </c>
       <c r="D15">
-        <v>1.017252619289129</v>
+        <v>1.042087767736909</v>
       </c>
       <c r="E15">
-        <v>1.004009153377523</v>
+        <v>1.036325630851522</v>
       </c>
       <c r="F15">
-        <v>1.014783248271816</v>
+        <v>1.048292528592731</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04491958575888</v>
+        <v>1.04023363721541</v>
       </c>
       <c r="J15">
-        <v>1.023153542280119</v>
+        <v>1.039015896592541</v>
       </c>
       <c r="K15">
-        <v>1.031786186711383</v>
+        <v>1.045616776002378</v>
       </c>
       <c r="L15">
-        <v>1.01878434736037</v>
+        <v>1.039875755073471</v>
       </c>
       <c r="M15">
-        <v>1.029361247426943</v>
+        <v>1.051799085460524</v>
       </c>
       <c r="N15">
-        <v>1.01143728793167</v>
+        <v>1.016938604299777</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9965552389626121</v>
+        <v>1.033005993601996</v>
       </c>
       <c r="D16">
-        <v>1.019533022937083</v>
+        <v>1.042536059193077</v>
       </c>
       <c r="E16">
-        <v>1.006528776532741</v>
+        <v>1.036838485554216</v>
       </c>
       <c r="F16">
-        <v>1.017512305897934</v>
+        <v>1.048848257753298</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045983269665955</v>
+        <v>1.040393290419172</v>
       </c>
       <c r="J16">
-        <v>1.02482897410644</v>
+        <v>1.039343308184489</v>
       </c>
       <c r="K16">
-        <v>1.033522667518952</v>
+        <v>1.045950438451697</v>
       </c>
       <c r="L16">
-        <v>1.020744809656227</v>
+        <v>1.040273012463966</v>
       </c>
       <c r="M16">
-        <v>1.031536637797349</v>
+        <v>1.052240597387555</v>
       </c>
       <c r="N16">
-        <v>1.012002792034032</v>
+        <v>1.017048458181913</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.998344514328415</v>
+        <v>1.033349182140217</v>
       </c>
       <c r="D17">
-        <v>1.020947280928378</v>
+        <v>1.042817395842608</v>
       </c>
       <c r="E17">
-        <v>1.008092138200312</v>
+        <v>1.037160465682147</v>
       </c>
       <c r="F17">
-        <v>1.019205383586871</v>
+        <v>1.049197141794346</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046639346179368</v>
+        <v>1.040493077936662</v>
       </c>
       <c r="J17">
-        <v>1.02586645939574</v>
+        <v>1.03954863946032</v>
       </c>
       <c r="K17">
-        <v>1.034597733406601</v>
+        <v>1.046159648308509</v>
       </c>
       <c r="L17">
-        <v>1.021959755144588</v>
+        <v>1.040522266736827</v>
       </c>
       <c r="M17">
-        <v>1.032884848873859</v>
+        <v>1.052517625891848</v>
       </c>
       <c r="N17">
-        <v>1.012352957375612</v>
+        <v>1.01711733676793</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9993804260641125</v>
+        <v>1.033549418241496</v>
       </c>
       <c r="D18">
-        <v>1.021766497261174</v>
+        <v>1.042981542999544</v>
       </c>
       <c r="E18">
-        <v>1.008997997466202</v>
+        <v>1.037348371617444</v>
       </c>
       <c r="F18">
-        <v>1.020186322309418</v>
+        <v>1.04940074388101</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047018081851459</v>
+        <v>1.040551152812808</v>
       </c>
       <c r="J18">
-        <v>1.026466860607681</v>
+        <v>1.039668389028794</v>
       </c>
       <c r="K18">
-        <v>1.035219799971659</v>
+        <v>1.046281644872975</v>
       </c>
       <c r="L18">
-        <v>1.02266320049572</v>
+        <v>1.040667675630617</v>
       </c>
       <c r="M18">
-        <v>1.033665479112236</v>
+        <v>1.052679240225524</v>
       </c>
       <c r="N18">
-        <v>1.012555594520085</v>
+        <v>1.017157501591905</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9997323505215816</v>
+        <v>1.033617703721862</v>
       </c>
       <c r="D19">
-        <v>1.022044875032232</v>
+        <v>1.043037521074893</v>
       </c>
       <c r="E19">
-        <v>1.009305864343501</v>
+        <v>1.037412459662776</v>
       </c>
       <c r="F19">
-        <v>1.020519692089079</v>
+        <v>1.049470184509915</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047146558969406</v>
+        <v>1.040570932859727</v>
       </c>
       <c r="J19">
-        <v>1.026670786751366</v>
+        <v>1.039709217673667</v>
       </c>
       <c r="K19">
-        <v>1.035431070456345</v>
+        <v>1.046323237085098</v>
       </c>
       <c r="L19">
-        <v>1.022902184437589</v>
+        <v>1.040717260184307</v>
       </c>
       <c r="M19">
-        <v>1.033930689584622</v>
+        <v>1.052734351294161</v>
       </c>
       <c r="N19">
-        <v>1.012624418981507</v>
+        <v>1.017171194899344</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9981533472836289</v>
+        <v>1.033312355039336</v>
       </c>
       <c r="D20">
-        <v>1.020796136604302</v>
+        <v>1.042787206080841</v>
       </c>
       <c r="E20">
-        <v>1.007925030621426</v>
+        <v>1.03712590986807</v>
       </c>
       <c r="F20">
-        <v>1.019024419213731</v>
+        <v>1.049159699077097</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046569364811292</v>
+        <v>1.040482385069755</v>
       </c>
       <c r="J20">
-        <v>1.025755640361374</v>
+        <v>1.039526611076382</v>
       </c>
       <c r="K20">
-        <v>1.034482908737117</v>
+        <v>1.046137205372972</v>
       </c>
       <c r="L20">
-        <v>1.02182994477084</v>
+        <v>1.040495521714467</v>
       </c>
       <c r="M20">
-        <v>1.032740797197288</v>
+        <v>1.052487900418581</v>
       </c>
       <c r="N20">
-        <v>1.012315555086234</v>
+        <v>1.017109947870945</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9929274413322505</v>
+        <v>1.032320345373507</v>
       </c>
       <c r="D21">
-        <v>1.0166684715437</v>
+        <v>1.041973978405159</v>
       </c>
       <c r="E21">
-        <v>1.003363954824172</v>
+        <v>1.03619549204845</v>
       </c>
       <c r="F21">
-        <v>1.014084345832115</v>
+        <v>1.048151506047943</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044645994130591</v>
+        <v>1.040192987184626</v>
       </c>
       <c r="J21">
-        <v>1.022723868651872</v>
+        <v>1.038932745596924</v>
       </c>
       <c r="K21">
-        <v>1.031340789189423</v>
+        <v>1.045532024715127</v>
       </c>
       <c r="L21">
-        <v>1.018281875088528</v>
+        <v>1.039774902781198</v>
       </c>
       <c r="M21">
-        <v>1.028803710191988</v>
+        <v>1.051687000439494</v>
       </c>
       <c r="N21">
-        <v>1.011292257870866</v>
+        <v>1.016910700791101</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9895675451605442</v>
+        <v>1.031697179041595</v>
       </c>
       <c r="D22">
-        <v>1.014018987841204</v>
+        <v>1.041463115219655</v>
       </c>
       <c r="E22">
-        <v>1.00043866344327</v>
+        <v>1.035611416539391</v>
       </c>
       <c r="F22">
-        <v>1.010915187142553</v>
+        <v>1.047518562481113</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043399563946105</v>
+        <v>1.040009869293209</v>
       </c>
       <c r="J22">
-        <v>1.020772557840527</v>
+        <v>1.038559215751639</v>
       </c>
       <c r="K22">
-        <v>1.029317749242389</v>
+        <v>1.045151243204285</v>
       </c>
       <c r="L22">
-        <v>1.016001435331106</v>
+        <v>1.039322037807414</v>
       </c>
       <c r="M22">
-        <v>1.026273469527525</v>
+        <v>1.051183707204466</v>
       </c>
       <c r="N22">
-        <v>1.010633610921247</v>
+        <v>1.016785330957339</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.991355941759246</v>
+        <v>1.032027478795088</v>
       </c>
       <c r="D23">
-        <v>1.015428820044155</v>
+        <v>1.041733890731223</v>
       </c>
       <c r="E23">
-        <v>1.00199503803987</v>
+        <v>1.03592095875116</v>
       </c>
       <c r="F23">
-        <v>1.012601385916792</v>
+        <v>1.04785400749893</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044063920895753</v>
+        <v>1.040107053465763</v>
       </c>
       <c r="J23">
-        <v>1.021811379688205</v>
+        <v>1.038757244194178</v>
       </c>
       <c r="K23">
-        <v>1.030394821406197</v>
+        <v>1.045353128883112</v>
       </c>
       <c r="L23">
-        <v>1.017215178376698</v>
+        <v>1.039562089130828</v>
       </c>
       <c r="M23">
-        <v>1.027620144974289</v>
+        <v>1.051450486952356</v>
       </c>
       <c r="N23">
-        <v>1.010984257308694</v>
+        <v>1.01685180077359</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9982397513225972</v>
+        <v>1.033328995435651</v>
       </c>
       <c r="D24">
-        <v>1.02086444979176</v>
+        <v>1.042800847385779</v>
       </c>
       <c r="E24">
-        <v>1.008000557922503</v>
+        <v>1.037141523843056</v>
       </c>
       <c r="F24">
-        <v>1.019106209597802</v>
+        <v>1.04917661750838</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046600998546393</v>
+        <v>1.040487217116225</v>
       </c>
       <c r="J24">
-        <v>1.025805729356224</v>
+        <v>1.039536564806568</v>
       </c>
       <c r="K24">
-        <v>1.034534808492839</v>
+        <v>1.046147346468512</v>
       </c>
       <c r="L24">
-        <v>1.021888616569426</v>
+        <v>1.04050760656763</v>
       </c>
       <c r="M24">
-        <v>1.03280590571405</v>
+        <v>1.052501331993159</v>
       </c>
       <c r="N24">
-        <v>1.012332460533232</v>
+        <v>1.017113286629135</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.005926228937179</v>
+        <v>1.034841683470183</v>
       </c>
       <c r="D25">
-        <v>1.026950022236391</v>
+        <v>1.044040878288854</v>
       </c>
       <c r="E25">
-        <v>1.0147347970234</v>
+        <v>1.038561853462704</v>
       </c>
       <c r="F25">
-        <v>1.026397190476749</v>
+        <v>1.050715503844579</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049391175059574</v>
+        <v>1.04092329360615</v>
       </c>
       <c r="J25">
-        <v>1.030255784650874</v>
+        <v>1.040440264393239</v>
       </c>
       <c r="K25">
-        <v>1.039143898242527</v>
+        <v>1.047067732078673</v>
       </c>
       <c r="L25">
-        <v>1.027108600742566</v>
+        <v>1.041605728247728</v>
       </c>
       <c r="M25">
-        <v>1.038599092245704</v>
+        <v>1.053721884101476</v>
       </c>
       <c r="N25">
-        <v>1.013834217191657</v>
+        <v>1.017416297730998</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_77/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_77/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036050048989564</v>
+        <v>1.011834732651758</v>
       </c>
       <c r="D2">
-        <v>1.045031388801901</v>
+        <v>1.031638850960783</v>
       </c>
       <c r="E2">
-        <v>1.039697817890114</v>
+        <v>1.019932530917338</v>
       </c>
       <c r="F2">
-        <v>1.051946139633491</v>
+        <v>1.032022312842124</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04126698348536</v>
+        <v>1.051500195747486</v>
       </c>
       <c r="J2">
-        <v>1.041160482676163</v>
+        <v>1.033667140309007</v>
       </c>
       <c r="K2">
-        <v>1.047800771080341</v>
+        <v>1.04267432462968</v>
       </c>
       <c r="L2">
-        <v>1.042482267786427</v>
+        <v>1.031120986321462</v>
       </c>
       <c r="M2">
-        <v>1.054696233967583</v>
+        <v>1.043052848740248</v>
       </c>
       <c r="N2">
-        <v>1.01765761782517</v>
+        <v>1.01498510295827</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036928480810799</v>
+        <v>1.016005543785274</v>
       </c>
       <c r="D3">
-        <v>1.045751409860684</v>
+        <v>1.034954096526012</v>
       </c>
       <c r="E3">
-        <v>1.040524407164275</v>
+        <v>1.023613164786695</v>
       </c>
       <c r="F3">
-        <v>1.05284153239199</v>
+        <v>1.036004336134568</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041514128942042</v>
+        <v>1.052967520795925</v>
       </c>
       <c r="J3">
-        <v>1.041683075675493</v>
+        <v>1.036069191580128</v>
       </c>
       <c r="K3">
-        <v>1.048332388372463</v>
+        <v>1.045158445406373</v>
       </c>
       <c r="L3">
-        <v>1.043119085859744</v>
+        <v>1.033952569043439</v>
       </c>
       <c r="M3">
-        <v>1.055404161991951</v>
+        <v>1.046196363192153</v>
       </c>
       <c r="N3">
-        <v>1.017832621105605</v>
+        <v>1.015795217935486</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037497364333266</v>
+        <v>1.018652067937583</v>
       </c>
       <c r="D4">
-        <v>1.046217683251864</v>
+        <v>1.037059951277841</v>
       </c>
       <c r="E4">
-        <v>1.041060079568865</v>
+        <v>1.025953784981901</v>
       </c>
       <c r="F4">
-        <v>1.053421754523846</v>
+        <v>1.038536066694387</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041672932125922</v>
+        <v>1.05388842875386</v>
       </c>
       <c r="J4">
-        <v>1.042021060430047</v>
+        <v>1.03759039363712</v>
       </c>
       <c r="K4">
-        <v>1.048676080161196</v>
+        <v>1.046730760225228</v>
       </c>
       <c r="L4">
-        <v>1.043531314836513</v>
+        <v>1.035748745456561</v>
       </c>
       <c r="M4">
-        <v>1.055862445333643</v>
+        <v>1.048190620373727</v>
       </c>
       <c r="N4">
-        <v>1.017945757324121</v>
+        <v>1.016308115228584</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037736636426826</v>
+        <v>1.019752563463235</v>
       </c>
       <c r="D5">
-        <v>1.04641379199718</v>
+        <v>1.037936113398957</v>
       </c>
       <c r="E5">
-        <v>1.041285469510949</v>
+        <v>1.026928277914889</v>
       </c>
       <c r="F5">
-        <v>1.053665880130409</v>
+        <v>1.039589998180479</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041739424995225</v>
+        <v>1.054268893330561</v>
       </c>
       <c r="J5">
-        <v>1.042163107948193</v>
+        <v>1.038222206208199</v>
       </c>
       <c r="K5">
-        <v>1.04882049515871</v>
+        <v>1.047383589122519</v>
       </c>
       <c r="L5">
-        <v>1.04370465414234</v>
+        <v>1.036495478960488</v>
       </c>
       <c r="M5">
-        <v>1.056055155708937</v>
+        <v>1.049019754025557</v>
       </c>
       <c r="N5">
-        <v>1.017993294810306</v>
+        <v>1.01652110341639</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037776817879641</v>
+        <v>1.019936643341431</v>
       </c>
       <c r="D6">
-        <v>1.046446724599084</v>
+        <v>1.038082696762633</v>
       </c>
       <c r="E6">
-        <v>1.041323324761127</v>
+        <v>1.02709135103906</v>
       </c>
       <c r="F6">
-        <v>1.053706881587782</v>
+        <v>1.039766357252092</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041750573704994</v>
+        <v>1.054332387209058</v>
       </c>
       <c r="J6">
-        <v>1.042186955899711</v>
+        <v>1.038327844952444</v>
       </c>
       <c r="K6">
-        <v>1.048844738755573</v>
+        <v>1.047492729103921</v>
       </c>
       <c r="L6">
-        <v>1.043733760779925</v>
+        <v>1.036620374527482</v>
       </c>
       <c r="M6">
-        <v>1.05608751540654</v>
+        <v>1.049158434513462</v>
       </c>
       <c r="N6">
-        <v>1.018001275086473</v>
+        <v>1.016556712644658</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037500561054496</v>
+        <v>1.018666819840018</v>
       </c>
       <c r="D7">
-        <v>1.046220303325</v>
+        <v>1.037071694151627</v>
       </c>
       <c r="E7">
-        <v>1.04106309048289</v>
+        <v>1.02596684314537</v>
       </c>
       <c r="F7">
-        <v>1.053425015757451</v>
+        <v>1.038550189832012</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041673821660792</v>
+        <v>1.053893538614413</v>
       </c>
       <c r="J7">
-        <v>1.04202295863947</v>
+        <v>1.037598865921726</v>
       </c>
       <c r="K7">
-        <v>1.048678010129892</v>
+        <v>1.046739515176608</v>
       </c>
       <c r="L7">
-        <v>1.043533630856133</v>
+        <v>1.035758755945795</v>
       </c>
       <c r="M7">
-        <v>1.05586502015202</v>
+        <v>1.048201735292952</v>
       </c>
       <c r="N7">
-        <v>1.017946392621014</v>
+        <v>1.016310971443544</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036346819087422</v>
+        <v>1.013255353656697</v>
       </c>
       <c r="D8">
-        <v>1.045274645408968</v>
+        <v>1.032767567973685</v>
       </c>
       <c r="E8">
-        <v>1.039976998138279</v>
+        <v>1.021185098405403</v>
       </c>
       <c r="F8">
-        <v>1.052248566250863</v>
+        <v>1.033377565062143</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041350738192311</v>
+        <v>1.052002088864642</v>
       </c>
       <c r="J8">
-        <v>1.041337129530386</v>
+        <v>1.034485911127789</v>
       </c>
       <c r="K8">
-        <v>1.047980495074492</v>
+        <v>1.043521246897752</v>
       </c>
       <c r="L8">
-        <v>1.042697448480196</v>
+        <v>1.03208555129475</v>
       </c>
       <c r="M8">
-        <v>1.054935437946691</v>
+        <v>1.044123627727124</v>
       </c>
       <c r="N8">
-        <v>1.017716781998364</v>
+        <v>1.015261269358216</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03431750773971</v>
+        <v>1.003299911543797</v>
       </c>
       <c r="D9">
-        <v>1.043611190165577</v>
+        <v>1.024868849485318</v>
       </c>
       <c r="E9">
-        <v>1.038069467729616</v>
+        <v>1.012430393600753</v>
       </c>
       <c r="F9">
-        <v>1.050182041332447</v>
+        <v>1.023902653349773</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040772904460526</v>
+        <v>1.048443363588752</v>
       </c>
       <c r="J9">
-        <v>1.04012737339788</v>
+        <v>1.028736677170995</v>
       </c>
       <c r="K9">
-        <v>1.046749137541049</v>
+        <v>1.037570932732</v>
       </c>
       <c r="L9">
-        <v>1.041225309383301</v>
+        <v>1.025324964974095</v>
       </c>
       <c r="M9">
-        <v>1.053299039081076</v>
+        <v>1.036619475049995</v>
       </c>
       <c r="N9">
-        <v>1.017311411273664</v>
+        <v>1.013321610177891</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032967218146936</v>
+        <v>0.9963519716620451</v>
       </c>
       <c r="D10">
-        <v>1.042504272008851</v>
+        <v>1.019372417818862</v>
       </c>
       <c r="E10">
-        <v>1.036802112319273</v>
+        <v>1.006351275877618</v>
       </c>
       <c r="F10">
-        <v>1.048808844599126</v>
+        <v>1.017320066279669</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040381995963745</v>
+        <v>1.045908587982564</v>
       </c>
       <c r="J10">
-        <v>1.039320101540812</v>
+        <v>1.024711078381104</v>
       </c>
       <c r="K10">
-        <v>1.04592679142092</v>
+        <v>1.033400490174505</v>
       </c>
       <c r="L10">
-        <v>1.040244847486702</v>
+        <v>1.020606795206391</v>
       </c>
       <c r="M10">
-        <v>1.052209294361135</v>
+        <v>1.03138348815248</v>
       </c>
       <c r="N10">
-        <v>1.017040672774942</v>
+        <v>1.011962999846793</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032383156920079</v>
+        <v>0.9932627594483128</v>
       </c>
       <c r="D11">
-        <v>1.042025470283662</v>
+        <v>1.016933078188947</v>
       </c>
       <c r="E11">
-        <v>1.036254380460052</v>
+        <v>1.003656205025885</v>
       </c>
       <c r="F11">
-        <v>1.048215319612596</v>
+        <v>1.014400925569138</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040211388362116</v>
+        <v>1.044769980907565</v>
       </c>
       <c r="J11">
-        <v>1.038970375251206</v>
+        <v>1.022918526465514</v>
       </c>
       <c r="K11">
-        <v>1.045570379211849</v>
+        <v>1.031542573793361</v>
       </c>
       <c r="L11">
-        <v>1.03982054124079</v>
+        <v>1.018509498497419</v>
       </c>
       <c r="M11">
-        <v>1.051737721909388</v>
+        <v>1.029056277326927</v>
       </c>
       <c r="N11">
-        <v>1.016923328637232</v>
+        <v>1.011357961914285</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032166305445523</v>
+        <v>0.9921025298731184</v>
       </c>
       <c r="D12">
-        <v>1.041847698843049</v>
+        <v>1.016017660555345</v>
       </c>
       <c r="E12">
-        <v>1.036051086491558</v>
+        <v>1.002645231046772</v>
       </c>
       <c r="F12">
-        <v>1.047995021617359</v>
+        <v>1.013305762748216</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040147816211972</v>
+        <v>1.044340655563205</v>
       </c>
       <c r="J12">
-        <v>1.0388404465202</v>
+        <v>1.022244926789806</v>
       </c>
       <c r="K12">
-        <v>1.045437943283174</v>
+        <v>1.030844289538431</v>
       </c>
       <c r="L12">
-        <v>1.039662972363856</v>
+        <v>1.017721927471974</v>
       </c>
       <c r="M12">
-        <v>1.051562604479924</v>
+        <v>1.028182409241477</v>
       </c>
       <c r="N12">
-        <v>1.016879725295351</v>
+        <v>1.011130596816859</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032212816509577</v>
+        <v>0.9923519910315066</v>
       </c>
       <c r="D13">
-        <v>1.041885827918559</v>
+        <v>1.016214450386164</v>
       </c>
       <c r="E13">
-        <v>1.036094686561359</v>
+        <v>1.002862544539009</v>
       </c>
       <c r="F13">
-        <v>1.048042268855455</v>
+        <v>1.0135411792522</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040161461733826</v>
+        <v>1.044433040616009</v>
       </c>
       <c r="J13">
-        <v>1.038868317779934</v>
+        <v>1.022389773305532</v>
       </c>
       <c r="K13">
-        <v>1.045466353418622</v>
+        <v>1.03099444944951</v>
       </c>
       <c r="L13">
-        <v>1.039696769712147</v>
+        <v>1.017891257091603</v>
       </c>
       <c r="M13">
-        <v>1.051600165678502</v>
+        <v>1.02837029113724</v>
       </c>
       <c r="N13">
-        <v>1.016889079100481</v>
+        <v>1.011179488134376</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032365229966914</v>
+        <v>0.9931671185883387</v>
       </c>
       <c r="D14">
-        <v>1.042010774064488</v>
+        <v>1.016857602511924</v>
       </c>
       <c r="E14">
-        <v>1.036237572884296</v>
+        <v>1.003572842497723</v>
       </c>
       <c r="F14">
-        <v>1.04819710636462</v>
+        <v>1.014310623824543</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040206137562543</v>
+        <v>1.044734624606431</v>
       </c>
       <c r="J14">
-        <v>1.038959635801847</v>
+        <v>1.022863006963076</v>
       </c>
       <c r="K14">
-        <v>1.045559433000723</v>
+        <v>1.031485022170067</v>
       </c>
       <c r="L14">
-        <v>1.039807515778925</v>
+        <v>1.018444574183748</v>
       </c>
       <c r="M14">
-        <v>1.05172324571035</v>
+        <v>1.02898423820985</v>
       </c>
       <c r="N14">
-        <v>1.016919724705706</v>
+        <v>1.011339222099554</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032459149537274</v>
+        <v>0.993667635304633</v>
       </c>
       <c r="D15">
-        <v>1.042087767736909</v>
+        <v>1.017252619289129</v>
       </c>
       <c r="E15">
-        <v>1.036325630851522</v>
+        <v>1.004009153377523</v>
       </c>
       <c r="F15">
-        <v>1.048292528592731</v>
+        <v>1.014783248271815</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04023363721541</v>
+        <v>1.04491958575888</v>
       </c>
       <c r="J15">
-        <v>1.039015896592541</v>
+        <v>1.023153542280119</v>
       </c>
       <c r="K15">
-        <v>1.045616776002378</v>
+        <v>1.031786186711383</v>
       </c>
       <c r="L15">
-        <v>1.039875755073471</v>
+        <v>1.018784347360369</v>
       </c>
       <c r="M15">
-        <v>1.051799085460524</v>
+        <v>1.029361247426942</v>
       </c>
       <c r="N15">
-        <v>1.016938604299777</v>
+        <v>1.011437287931669</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033005993601996</v>
+        <v>0.9965552389626131</v>
       </c>
       <c r="D16">
-        <v>1.042536059193077</v>
+        <v>1.019533022937084</v>
       </c>
       <c r="E16">
-        <v>1.036838485554216</v>
+        <v>1.006528776532742</v>
       </c>
       <c r="F16">
-        <v>1.048848257753298</v>
+        <v>1.017512305897935</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040393290419172</v>
+        <v>1.045983269665956</v>
       </c>
       <c r="J16">
-        <v>1.039343308184489</v>
+        <v>1.02482897410644</v>
       </c>
       <c r="K16">
-        <v>1.045950438451697</v>
+        <v>1.033522667518953</v>
       </c>
       <c r="L16">
-        <v>1.040273012463966</v>
+        <v>1.020744809656228</v>
       </c>
       <c r="M16">
-        <v>1.052240597387555</v>
+        <v>1.03153663779735</v>
       </c>
       <c r="N16">
-        <v>1.017048458181913</v>
+        <v>1.012002792034033</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033349182140217</v>
+        <v>0.9983445143284155</v>
       </c>
       <c r="D17">
-        <v>1.042817395842608</v>
+        <v>1.020947280928379</v>
       </c>
       <c r="E17">
-        <v>1.037160465682147</v>
+        <v>1.008092138200313</v>
       </c>
       <c r="F17">
-        <v>1.049197141794346</v>
+        <v>1.019205383586872</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040493077936662</v>
+        <v>1.046639346179369</v>
       </c>
       <c r="J17">
-        <v>1.03954863946032</v>
+        <v>1.025866459395741</v>
       </c>
       <c r="K17">
-        <v>1.046159648308509</v>
+        <v>1.034597733406602</v>
       </c>
       <c r="L17">
-        <v>1.040522266736827</v>
+        <v>1.021959755144588</v>
       </c>
       <c r="M17">
-        <v>1.052517625891848</v>
+        <v>1.03288484887386</v>
       </c>
       <c r="N17">
-        <v>1.01711733676793</v>
+        <v>1.012352957375612</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033549418241496</v>
+        <v>0.9993804260641131</v>
       </c>
       <c r="D18">
-        <v>1.042981542999544</v>
+        <v>1.021766497261175</v>
       </c>
       <c r="E18">
-        <v>1.037348371617444</v>
+        <v>1.008997997466203</v>
       </c>
       <c r="F18">
-        <v>1.04940074388101</v>
+        <v>1.020186322309419</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040551152812808</v>
+        <v>1.047018081851459</v>
       </c>
       <c r="J18">
-        <v>1.039668389028794</v>
+        <v>1.026466860607682</v>
       </c>
       <c r="K18">
-        <v>1.046281644872975</v>
+        <v>1.035219799971659</v>
       </c>
       <c r="L18">
-        <v>1.040667675630617</v>
+        <v>1.022663200495721</v>
       </c>
       <c r="M18">
-        <v>1.052679240225524</v>
+        <v>1.033665479112237</v>
       </c>
       <c r="N18">
-        <v>1.017157501591905</v>
+        <v>1.012555594520085</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033617703721862</v>
+        <v>0.9997323505215808</v>
       </c>
       <c r="D19">
-        <v>1.043037521074893</v>
+        <v>1.022044875032231</v>
       </c>
       <c r="E19">
-        <v>1.037412459662776</v>
+        <v>1.0093058643435</v>
       </c>
       <c r="F19">
-        <v>1.049470184509915</v>
+        <v>1.020519692089078</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040570932859727</v>
+        <v>1.047146558969405</v>
       </c>
       <c r="J19">
-        <v>1.039709217673667</v>
+        <v>1.026670786751366</v>
       </c>
       <c r="K19">
-        <v>1.046323237085098</v>
+        <v>1.035431070456344</v>
       </c>
       <c r="L19">
-        <v>1.040717260184307</v>
+        <v>1.022902184437589</v>
       </c>
       <c r="M19">
-        <v>1.052734351294161</v>
+        <v>1.033930689584621</v>
       </c>
       <c r="N19">
-        <v>1.017171194899344</v>
+        <v>1.012624418981507</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033312355039336</v>
+        <v>0.9981533472836271</v>
       </c>
       <c r="D20">
-        <v>1.042787206080841</v>
+        <v>1.020796136604301</v>
       </c>
       <c r="E20">
-        <v>1.03712590986807</v>
+        <v>1.007925030621425</v>
       </c>
       <c r="F20">
-        <v>1.049159699077097</v>
+        <v>1.019024419213729</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040482385069755</v>
+        <v>1.046569364811291</v>
       </c>
       <c r="J20">
-        <v>1.039526611076382</v>
+        <v>1.025755640361373</v>
       </c>
       <c r="K20">
-        <v>1.046137205372972</v>
+        <v>1.034482908737115</v>
       </c>
       <c r="L20">
-        <v>1.040495521714467</v>
+        <v>1.021829944770838</v>
       </c>
       <c r="M20">
-        <v>1.052487900418581</v>
+        <v>1.032740797197286</v>
       </c>
       <c r="N20">
-        <v>1.017109947870945</v>
+        <v>1.012315555086234</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032320345373507</v>
+        <v>0.9929274413322492</v>
       </c>
       <c r="D21">
-        <v>1.041973978405159</v>
+        <v>1.016668471543698</v>
       </c>
       <c r="E21">
-        <v>1.03619549204845</v>
+        <v>1.003363954824171</v>
       </c>
       <c r="F21">
-        <v>1.048151506047943</v>
+        <v>1.014084345832114</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040192987184626</v>
+        <v>1.044645994130589</v>
       </c>
       <c r="J21">
-        <v>1.038932745596924</v>
+        <v>1.02272386865187</v>
       </c>
       <c r="K21">
-        <v>1.045532024715127</v>
+        <v>1.031340789189422</v>
       </c>
       <c r="L21">
-        <v>1.039774902781198</v>
+        <v>1.018281875088527</v>
       </c>
       <c r="M21">
-        <v>1.051687000439494</v>
+        <v>1.028803710191986</v>
       </c>
       <c r="N21">
-        <v>1.016910700791101</v>
+        <v>1.011292257870865</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031697179041595</v>
+        <v>0.9895675451605443</v>
       </c>
       <c r="D22">
-        <v>1.041463115219655</v>
+        <v>1.014018987841204</v>
       </c>
       <c r="E22">
-        <v>1.035611416539391</v>
+        <v>1.00043866344327</v>
       </c>
       <c r="F22">
-        <v>1.047518562481113</v>
+        <v>1.010915187142553</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040009869293209</v>
+        <v>1.043399563946105</v>
       </c>
       <c r="J22">
-        <v>1.038559215751639</v>
+        <v>1.020772557840527</v>
       </c>
       <c r="K22">
-        <v>1.045151243204285</v>
+        <v>1.029317749242389</v>
       </c>
       <c r="L22">
-        <v>1.039322037807414</v>
+        <v>1.016001435331106</v>
       </c>
       <c r="M22">
-        <v>1.051183707204466</v>
+        <v>1.026273469527526</v>
       </c>
       <c r="N22">
-        <v>1.016785330957339</v>
+        <v>1.010633610921247</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032027478795088</v>
+        <v>0.9913559417592466</v>
       </c>
       <c r="D23">
-        <v>1.041733890731223</v>
+        <v>1.015428820044156</v>
       </c>
       <c r="E23">
-        <v>1.03592095875116</v>
+        <v>1.001995038039871</v>
       </c>
       <c r="F23">
-        <v>1.04785400749893</v>
+        <v>1.012601385916792</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040107053465763</v>
+        <v>1.044063920895753</v>
       </c>
       <c r="J23">
-        <v>1.038757244194178</v>
+        <v>1.021811379688206</v>
       </c>
       <c r="K23">
-        <v>1.045353128883112</v>
+        <v>1.030394821406197</v>
       </c>
       <c r="L23">
-        <v>1.039562089130828</v>
+        <v>1.017215178376699</v>
       </c>
       <c r="M23">
-        <v>1.051450486952356</v>
+        <v>1.027620144974289</v>
       </c>
       <c r="N23">
-        <v>1.01685180077359</v>
+        <v>1.010984257308694</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033328995435651</v>
+        <v>0.998239751322597</v>
       </c>
       <c r="D24">
-        <v>1.042800847385779</v>
+        <v>1.02086444979176</v>
       </c>
       <c r="E24">
-        <v>1.037141523843056</v>
+        <v>1.008000557922503</v>
       </c>
       <c r="F24">
-        <v>1.04917661750838</v>
+        <v>1.019106209597801</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040487217116225</v>
+        <v>1.046600998546393</v>
       </c>
       <c r="J24">
-        <v>1.039536564806568</v>
+        <v>1.025805729356224</v>
       </c>
       <c r="K24">
-        <v>1.046147346468512</v>
+        <v>1.034534808492838</v>
       </c>
       <c r="L24">
-        <v>1.04050760656763</v>
+        <v>1.021888616569426</v>
       </c>
       <c r="M24">
-        <v>1.052501331993159</v>
+        <v>1.032805905714049</v>
       </c>
       <c r="N24">
-        <v>1.017113286629135</v>
+        <v>1.012332460533232</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034841683470183</v>
+        <v>1.005926228937178</v>
       </c>
       <c r="D25">
-        <v>1.044040878288854</v>
+        <v>1.026950022236391</v>
       </c>
       <c r="E25">
-        <v>1.038561853462704</v>
+        <v>1.0147347970234</v>
       </c>
       <c r="F25">
-        <v>1.050715503844579</v>
+        <v>1.026397190476749</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04092329360615</v>
+        <v>1.049391175059574</v>
       </c>
       <c r="J25">
-        <v>1.040440264393239</v>
+        <v>1.030255784650874</v>
       </c>
       <c r="K25">
-        <v>1.047067732078673</v>
+        <v>1.039143898242526</v>
       </c>
       <c r="L25">
-        <v>1.041605728247728</v>
+        <v>1.027108600742565</v>
       </c>
       <c r="M25">
-        <v>1.053721884101476</v>
+        <v>1.038599092245704</v>
       </c>
       <c r="N25">
-        <v>1.017416297730998</v>
+        <v>1.013834217191656</v>
       </c>
     </row>
   </sheetData>
